--- a/TestData/ShareholdingDetails (1).xlsx
+++ b/TestData/ShareholdingDetails (1).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Secretarial-Project-main\Secretarial-Project-main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B1E2C4-C496-4AD4-A912-0F5114669DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ShareholdingDetails" sheetId="1" r:id="rId1"/>
@@ -137,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -545,38 +544,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5546875" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" customWidth="1"/>
-    <col min="19" max="19" width="14.5546875" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -644,7 +643,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1232</v>
       </c>
